--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -369,7 +369,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -377,23 +377,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,10 +402,10 @@
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.18359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1635,7 +1636,7 @@
         <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>83</v>
@@ -1870,273 +1871,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6985F-FC3F-4441-AFAF-0A650B24A90C}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAEB3CC-F781-4554-AEF1-C76FE8B4E123}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077D439C-5470-432E-AE86-7E728F4644CF}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,27 @@
     <t>Atto scritto</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -315,6 +336,12 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -394,14 +421,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
@@ -470,59 +497,59 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -530,19 +557,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -550,19 +577,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -570,19 +597,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -590,19 +617,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -610,59 +637,59 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -670,19 +697,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -690,19 +717,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -710,19 +737,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -730,19 +757,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -750,19 +777,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -770,19 +797,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -790,19 +817,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -810,19 +837,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -830,19 +857,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -850,19 +877,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -870,19 +897,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -890,19 +917,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -910,19 +937,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -930,19 +957,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -950,19 +977,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -970,19 +997,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -990,19 +1017,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1010,19 +1037,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1030,19 +1057,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1050,19 +1077,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1070,19 +1097,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1090,19 +1117,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1110,19 +1137,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1130,19 +1157,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1150,19 +1177,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1170,19 +1197,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1190,19 +1217,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1210,19 +1237,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1230,19 +1257,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1250,19 +1277,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1270,19 +1297,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1290,19 +1317,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1310,19 +1337,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1330,19 +1357,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1350,19 +1377,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1370,19 +1397,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1390,19 +1417,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1410,19 +1437,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1430,19 +1457,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1450,19 +1477,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1470,19 +1497,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1490,19 +1517,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1510,19 +1537,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1530,19 +1557,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1550,19 +1577,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1570,19 +1597,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1590,19 +1617,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1610,19 +1637,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1630,19 +1657,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1650,19 +1677,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1670,19 +1697,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1690,19 +1717,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1710,19 +1737,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1730,19 +1757,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1750,19 +1777,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1770,19 +1797,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1790,19 +1817,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1810,19 +1837,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1830,19 +1857,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1850,21 +1877,181 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Atto scritto</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2020,7 +2020,7 @@
         <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2029,7 +2029,7 @@
         <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2040,18 +2040,38 @@
         <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1989,7 +1989,7 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2000,7 +2000,7 @@
         <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2020,7 +2020,7 @@
         <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2029,7 +2029,7 @@
         <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2040,7 +2040,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -2049,7 +2049,7 @@
         <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2060,18 +2060,38 @@
         <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -347,22 +347,19 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Nome Ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMatrimonio.atto.enteEstero</t>
   </si>
   <si>
-    <t>Provincia Ente</t>
-  </si>
-  <si>
-    <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
     <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1920,13 +1917,13 @@
         <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>95</v>
@@ -1946,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>97</v>
@@ -1960,13 +1957,13 @@
         <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>99</v>
@@ -1980,13 +1977,13 @@
         <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>101</v>
@@ -2006,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>103</v>
@@ -2020,13 +2017,13 @@
         <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>105</v>
@@ -2046,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>107</v>
@@ -2060,16 +2057,16 @@
         <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2080,16 +2077,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,9 +47,15 @@
     <t/>
   </si>
   <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,4}</t>
+  </si>
+  <si>
     <t>Atto scritto</t>
   </si>
   <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
     <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
@@ -87,6 +96,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -418,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +442,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,205 +464,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -671,1425 +717,1641 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Istanza verbale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,4}</t>
+  </si>
+  <si>
+    <t>Atto scritto</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Istanza verbale</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,4}</t>
-  </si>
-  <si>
-    <t>Atto scritto</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -718,1640 +721,1640 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,4}</t>
+    <t>evento.trascrizioneMatrimonio.tipoDichiarazione,=,4</t>
   </si>
   <si>
     <t>Atto scritto</t>
   </si>
   <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+    <t>evento.trascrizioneMatrimonio.tipoDichiarazione,=,3</t>
   </si>
   <si>
     <t>Copia integrale atto di nascita degli sposi</t>
@@ -445,7 +445,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -125,6 +125,60 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -134,7 +188,7 @@
     <t>tipoDichiarazione</t>
   </si>
   <si>
-    <t>Data richiesta</t>
+    <t>Data comunicazione</t>
   </si>
   <si>
     <t>dataComunicazione</t>
@@ -146,9 +200,6 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>Data comunicazione</t>
-  </si>
-  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
@@ -351,12 +402,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -433,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -850,10 +895,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -867,16 +912,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -890,16 +935,16 @@
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -910,16 +955,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
@@ -933,16 +978,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>50</v>
@@ -956,16 +1001,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>52</v>
@@ -979,16 +1024,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>54</v>
@@ -1002,7 +1047,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>55</v>
@@ -1011,10 +1056,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1025,19 +1070,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1048,19 +1093,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1071,19 +1116,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1094,19 +1139,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1117,19 +1162,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1140,19 +1185,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1163,19 +1208,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1186,19 +1231,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1209,19 +1254,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1232,19 +1277,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1255,19 +1300,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1278,19 +1323,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1301,19 +1346,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1324,19 +1369,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1347,19 +1392,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1415,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1438,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1484,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2105,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2266,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2312,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2358,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2336,24 +2381,185 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,7 +173,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -478,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1349,16 +1352,16 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1372,7 +1375,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -1381,7 +1384,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1395,7 +1398,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -1404,7 +1407,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1418,7 +1421,7 @@
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -1427,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1441,16 +1444,16 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1464,7 +1467,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1473,7 +1476,7 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1487,7 +1490,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1496,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1510,7 +1513,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1519,7 +1522,7 @@
         <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1542,7 +1545,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,16 +1559,16 @@
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,7 +1582,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -1588,7 +1591,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,7 +1605,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -1611,7 +1614,7 @@
         <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1947,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1970,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2039,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2338,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2361,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,24 +2545,70 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,6 +339,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -481,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1648,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1993,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2178,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2431,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2477,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2523,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2546,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2591,24 +2615,208 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -218,6 +218,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -269,13 +275,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>64</v>
@@ -1287,7 +1293,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -1376,7 +1382,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1385,7 +1391,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1399,10 +1405,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>64</v>
@@ -1494,7 +1500,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -1609,7 +1615,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>64</v>
@@ -1678,7 +1684,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,16 +2417,16 @@
         <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2799,24 +2805,70 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -1431,7 +1431,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>64</v>
@@ -1454,7 +1454,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
@@ -1477,7 +1477,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
@@ -1500,7 +1500,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -2075,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>120</v>
@@ -2098,7 +2098,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>120</v>
@@ -2121,7 +2121,7 @@
         <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>120</v>
@@ -2144,7 +2144,7 @@
         <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>120</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1638,7 +1644,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>64</v>
@@ -1707,7 +1713,7 @@
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>64</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,16 +2446,16 @@
         <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,16 +2469,16 @@
         <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,24 +2857,70 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -285,6 +288,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -517,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -764,660 +773,660 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -1426,1502 +1435,1571 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>29</v>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -390,6 +390,84 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposo</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -526,17 +604,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2573,7 +2651,7 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>128</v>
@@ -2596,7 +2674,7 @@
         <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>128</v>
@@ -2619,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>128</v>
@@ -2642,7 +2720,7 @@
         <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>128</v>
@@ -2694,7 +2772,7 @@
         <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2708,7 +2786,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2717,7 +2795,7 @@
         <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,7 +2809,7 @@
         <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2740,7 +2818,7 @@
         <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,7 +2832,7 @@
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2763,7 +2841,7 @@
         <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2777,7 +2855,7 @@
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2786,7 +2864,7 @@
         <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,24 +3059,576 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,16 +2654,16 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,16 +2677,16 @@
         <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3200,16 +3206,16 @@
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3223,16 +3229,16 @@
         <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3594,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,24 +3617,70 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,12 +384,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -610,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1961,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1978,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2654,16 +2648,16 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,16 +2671,16 @@
         <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3206,16 +3200,16 @@
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3229,16 +3223,16 @@
         <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,70 +3611,24 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1369,7 +1381,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>65</v>
@@ -1392,7 +1404,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -1438,7 +1450,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>65</v>
@@ -1461,7 +1473,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>65</v>
@@ -1527,7 +1539,7 @@
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1536,7 +1548,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1550,7 +1562,7 @@
         <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1559,7 +1571,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1573,7 +1585,7 @@
         <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1806,7 +1818,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>65</v>
@@ -1829,7 +1841,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>65</v>
@@ -1875,7 +1887,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>65</v>
@@ -1898,7 +1910,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>65</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2502,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2640,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2663,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2686,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3215,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3261,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3307,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3330,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3353,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3376,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3399,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3422,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,19 +3445,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3468,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,19 +3491,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3514,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3537,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3560,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3583,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3606,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3652,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3663,24 +3675,116 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>30</v>
       </c>
     </row>
